--- a/biology/Botanique/Souvenir_du_Président_Carnot/Souvenir_du_Président_Carnot.xlsx
+++ b/biology/Botanique/Souvenir_du_Président_Carnot/Souvenir_du_Président_Carnot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Souvenir_du_Pr%C3%A9sident_Carnot</t>
+          <t>Souvenir_du_Président_Carnot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Souvenir du Président Carnot' est un cultivar de rosier hybride de thé introduit au commerce le 1er novembre 1894[1] par le rosiériste lyonnais Joseph Pernet-Ducher[2]. Il rappelle la mémoire du président de la République française Sadi Carnot, assassiné à Lyon, le 24 juin 1894. Cette rose était l'une des roses les plus appréciées des fleuristes pendant une bonne partie du XXe siècle en Europe pour sa bonne tenue de fleur à couper[3] et demeure une très bonne variété d'exposition.
+'Souvenir du Président Carnot' est un cultivar de rosier hybride de thé introduit au commerce le 1er novembre 1894 par le rosiériste lyonnais Joseph Pernet-Ducher. Il rappelle la mémoire du président de la République française Sadi Carnot, assassiné à Lyon, le 24 juin 1894. Cette rose était l'une des roses les plus appréciées des fleuristes pendant une bonne partie du XXe siècle en Europe pour sa bonne tenue de fleur à couper et demeure une très bonne variété d'exposition.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Souvenir_du_Pr%C3%A9sident_Carnot</t>
+          <t>Souvenir_du_Président_Carnot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son buisson au port érigé s'élève à 90 cm[4] pour une envergure de 60 cm. Il donne de grandes fleurs hautes, pleines (26-40 pétales), d'un beau rose chair très pâle aux revers blancs et qui fleurissent sur de longues et fortes tiges, généralement en solitaire, tout au long de la saison.
-La zone de rusticité de ce rosier élégant et vigoureux est de 6b à 9b[5]. Cette variété se prête très bien au forçage. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
-Il est issu d'un croisement semis non nommé x 'Lady Mary Fitzwilliam'[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son buisson au port érigé s'élève à 90 cm pour une envergure de 60 cm. Il donne de grandes fleurs hautes, pleines (26-40 pétales), d'un beau rose chair très pâle aux revers blancs et qui fleurissent sur de longues et fortes tiges, généralement en solitaire, tout au long de la saison.
+La zone de rusticité de ce rosier élégant et vigoureux est de 6b à 9b. Cette variété se prête très bien au forçage. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
+Il est issu d'un croisement semis non nommé x 'Lady Mary Fitzwilliam'.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Souvenir_du_Pr%C3%A9sident_Carnot</t>
+          <t>Souvenir_du_Président_Carnot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a donné naissance à 'Dr. W. Van Fleet'. Il a aussi donné naissance à 'Alida Lovett' (Van Fleet, 1905), hybride de Rosa wichuraiana.
 </t>
